--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cre\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2620012B-1E65-45C6-B0A7-828DBB67CB4E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C97B2DB-56FE-4640-86FC-02C370C3007D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="7890" xr2:uid="{E9D7CCCF-F8BC-4A6C-8BBA-D848A8953AC3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="7890" activeTab="1" xr2:uid="{E9D7CCCF-F8BC-4A6C-8BBA-D848A8953AC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -124,6 +125,55 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="24234982" cy="7678222"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>269130</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19684</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF5D0FEC-6BC9-4BAB-9BC4-E5446BCBB312}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="17414130" cy="4544059"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -434,6 +484,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6798E671-322B-436B-A963-A92A3F8D2BD0}">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6828320E-48F4-4105-9099-478505592DF3}">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cre\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C97B2DB-56FE-4640-86FC-02C370C3007D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE83CC6B-E729-49CD-938E-767E8543B51F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="7890" activeTab="1" xr2:uid="{E9D7CCCF-F8BC-4A6C-8BBA-D848A8953AC3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="7890" xr2:uid="{E9D7CCCF-F8BC-4A6C-8BBA-D848A8953AC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -97,17 +97,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>231982</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>58222</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>440221</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>29842</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85BA97C9-5E50-4777-A770-812AA70509FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53850A57-D8F7-47C3-A616-52E83F368D85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -124,7 +124,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="24234982" cy="7678222"/>
+          <a:ext cx="14842021" cy="9078592"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -484,7 +484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6798E671-322B-436B-A963-A92A3F8D2BD0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
@@ -498,7 +498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6828320E-48F4-4105-9099-478505592DF3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
